--- a/KeHoachThucHien.xlsx
+++ b/KeHoachThucHien.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HocKiI-Nam4-(22-23)\TieuLuanChuyenNganh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HocKiI-Nam4-(22-23)\TieuLuanChuyenNganh\book_sale_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FAC19-AE03-4AC7-BE3E-C1209754A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23672F41-BC0C-4E5F-A604-6903CBC20C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -490,6 +490,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,9 +500,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,65 +1041,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1143,9 +1143,7 @@
       <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1170,9 +1168,7 @@
       <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
         <v>85</v>
       </c>
@@ -1189,9 +1185,7 @@
       <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
         <v>34</v>
       </c>
@@ -1218,9 +1212,7 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="15" t="s">
         <v>61</v>
       </c>
@@ -1264,9 +1256,7 @@
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="15" t="s">
         <v>90</v>
       </c>
@@ -1283,9 +1273,7 @@
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1389,9 +1377,7 @@
       <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1414,13 +1400,11 @@
       <c r="D19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="16" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="14"/>
@@ -1436,9 +1420,7 @@
       <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="15" t="s">
         <v>95</v>
       </c>
@@ -1458,13 +1440,11 @@
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="16" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="14"/>
@@ -1477,9 +1457,7 @@
       <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1499,16 +1477,14 @@
       <c r="C23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="16" t="s">
         <v>98</v>
       </c>
       <c r="H23" s="14"/>
@@ -1524,9 +1500,7 @@
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="15" t="s">
         <v>99</v>
       </c>
@@ -1549,7 +1523,7 @@
       <c r="E25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="16" t="s">
         <v>100</v>
       </c>
       <c r="G25" s="15" t="s">
@@ -1572,9 +1546,7 @@
       <c r="D26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="15" t="s">
         <v>69</v>
       </c>
@@ -1593,9 +1565,7 @@
       <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1618,9 +1588,7 @@
       <c r="D28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="15" t="s">
         <v>102</v>
       </c>
@@ -1640,9 +1608,7 @@
       <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="15" t="s">
         <v>102</v>
       </c>
@@ -1659,9 +1625,7 @@
       <c r="C30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
         <v>34</v>
       </c>
@@ -1684,9 +1648,7 @@
       <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="15" t="s">
         <v>104</v>
       </c>
@@ -1706,9 +1668,7 @@
       <c r="D32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="15" t="s">
         <v>104</v>
       </c>
@@ -1728,9 +1688,7 @@
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="15" t="s">
         <v>105</v>
       </c>
@@ -1747,9 +1705,7 @@
       <c r="C34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
         <v>34</v>
       </c>
@@ -1772,9 +1728,7 @@
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="9" t="s">
         <v>108</v>
       </c>
@@ -1794,9 +1748,7 @@
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="9" t="s">
         <v>108</v>
       </c>
@@ -1816,9 +1768,7 @@
       <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="9" t="s">
         <v>109</v>
       </c>
@@ -1838,9 +1788,7 @@
       <c r="D38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="9" t="s">
         <v>109</v>
       </c>
@@ -2019,7 +1967,7 @@
       <c r="E45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="16" t="s">
         <v>115</v>
       </c>
       <c r="G45" s="15" t="s">

--- a/KeHoachThucHien.xlsx
+++ b/KeHoachThucHien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HocKiI-Nam4-(22-23)\TieuLuanChuyenNganh\book_sale_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23672F41-BC0C-4E5F-A604-6903CBC20C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE230A55-D0AA-4F85-A2AA-170317DB4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Tìm hiểu ReactJS, NodeJS, MongoDB</t>
   </si>
   <si>
-    <t>Design giao diện các trang trên phần mềm Figma</t>
-  </si>
-  <si>
     <t>Xây dựng HomePage</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>10/12/2022</t>
+  </si>
+  <si>
+    <t>Design giao diện các trang cần thiết cho website</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1148,15 +1148,15 @@
         <v>34</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1170,10 +1170,10 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1190,10 +1190,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1214,15 +1214,15 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,10 +1238,10 @@
         <v>34</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1258,10 +1258,10 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1278,10 +1278,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1304,15 +1304,15 @@
         <v>34</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1332,15 +1332,15 @@
         <v>34</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1351,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>34</v>
@@ -1360,32 +1360,32 @@
         <v>34</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1395,17 +1395,17 @@
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1415,17 +1415,17 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1435,17 +1435,17 @@
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -1455,17 +1455,17 @@
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -1475,17 +1475,17 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -1495,17 +1495,17 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1515,7 +1515,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>34</v>
@@ -1524,10 +1524,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1548,15 +1548,15 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1570,10 +1570,10 @@
         <v>34</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1590,10 +1590,10 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -1610,10 +1610,10 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1630,10 +1630,10 @@
         <v>34</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -1650,10 +1650,10 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -1670,10 +1670,10 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -1683,17 +1683,17 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -1710,10 +1710,10 @@
         <v>34</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1730,10 +1730,10 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -1750,10 +1750,10 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1770,10 +1770,10 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -1790,10 +1790,10 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1803,7 +1803,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>34</v>
@@ -1812,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -1826,11 +1826,11 @@
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D40" s="5" t="s">
         <v>34</v>
       </c>
@@ -1838,15 +1838,15 @@
         <v>34</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1866,22 +1866,22 @@
         <v>34</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>34</v>
@@ -1890,10 +1890,10 @@
         <v>34</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -1904,10 +1904,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>34</v>
@@ -1916,15 +1916,15 @@
         <v>34</v>
       </c>
       <c r="F43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
@@ -1932,10 +1932,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>34</v>
@@ -1944,22 +1944,22 @@
         <v>34</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>34</v>
@@ -1968,10 +1968,10 @@
         <v>34</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>

--- a/KeHoachThucHien.xlsx
+++ b/KeHoachThucHien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HocKiI-Nam4-(22-23)\TieuLuanChuyenNganh\book_sale_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE230A55-D0AA-4F85-A2AA-170317DB4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D99BEA-C2CB-428A-A7B3-CF449B72F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8664" yWindow="5808" windowWidth="13044" windowHeight="6348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -425,12 +425,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +506,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1174,9 @@
       <c r="G8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="5" t="s">
         <v>80</v>
@@ -1179,25 +1202,25 @@
       <c r="I9" s="14"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:10" s="24" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
